--- a/data/output/FV2304_FV2210/REMADV/33003.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="231">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="231">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -851,6 +851,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U93" totalsRowShown="0">
+  <autoFilter ref="A1:U93"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1140,7 +1170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5394,5 +5427,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/REMADV/33003.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="321">
   <si>
     <t>#</t>
   </si>
@@ -5155,9 +5155,7 @@
         <v>174</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>37</v>
       </c>
@@ -5211,9 +5209,7 @@
       <c r="K76" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>37</v>
       </c>
@@ -5315,9 +5311,7 @@
         <v>174</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>38</v>
       </c>
@@ -5400,50 +5394,48 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K80" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L80" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M80" s="5" t="s">
+      <c r="L80" s="4"/>
+      <c r="M80" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V80" s="5" t="s">
+      <c r="V80" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5475,9 +5467,7 @@
         <v>174</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>39</v>
       </c>
@@ -5531,9 +5521,7 @@
       <c r="K82" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>39</v>
       </c>
@@ -5682,44 +5670,42 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5" t="s">
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="V86" s="5"/>
+      <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -5747,9 +5733,7 @@
         <v>174</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>40</v>
       </c>
@@ -5774,44 +5758,42 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5" t="s">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -5839,9 +5821,7 @@
         <v>174</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>41</v>
       </c>
@@ -5891,9 +5871,7 @@
       <c r="K90" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L90" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>41</v>
       </c>
@@ -5918,44 +5896,42 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="K91" s="2"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5" t="s">
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="V91" s="5"/>
+      <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -5981,9 +5957,7 @@
         <v>174</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>42</v>
       </c>
@@ -6029,9 +6003,7 @@
         <v>174</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2304_FV2210/REMADV/33003.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33003.xlsx
@@ -1111,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1138,6 +1138,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1579,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1912,7 +1915,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2046,7 +2049,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2372,7 +2375,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2672,7 +2675,7 @@
         <v>195</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2860,7 +2863,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3220,7 +3223,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3518,7 +3521,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3760,7 +3763,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4112,7 +4115,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4262,7 +4265,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4412,7 +4415,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4618,7 +4621,7 @@
         <v>199</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4770,7 +4773,7 @@
         <v>201</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5080,23 +5083,23 @@
       <c r="V73" s="9"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="6" t="s">
         <v>187</v>
       </c>
@@ -5106,20 +5109,20 @@
       <c r="L74" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
       <c r="U74" s="6" t="s">
         <v>221</v>
       </c>
@@ -5236,23 +5239,23 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="6" t="s">
         <v>189</v>
       </c>
@@ -5262,20 +5265,20 @@
       <c r="L77" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
       <c r="U77" s="6" t="s">
         <v>222</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>207</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5564,7 +5567,7 @@
       <c r="L83" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="M83" s="9" t="s">
+      <c r="M83" s="10" t="s">
         <v>211</v>
       </c>
       <c r="N83" s="9" t="s">
@@ -5690,7 +5693,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="2"/>
@@ -5778,7 +5781,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2"/>
@@ -5916,7 +5919,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2"/>
